--- a/Code/Results/Cases/Case_4_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.67905897454027</v>
+        <v>14.00630148620626</v>
       </c>
       <c r="C2">
-        <v>15.42792743461173</v>
+        <v>9.142167332841243</v>
       </c>
       <c r="D2">
-        <v>12.22648207523461</v>
+        <v>14.84175391807416</v>
       </c>
       <c r="E2">
-        <v>13.22388897171505</v>
+        <v>16.24323577641535</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.28930617766697</v>
+        <v>29.27143134070009</v>
       </c>
       <c r="H2">
-        <v>8.798896919906374</v>
+        <v>14.26387854240084</v>
       </c>
       <c r="I2">
-        <v>11.53398368394916</v>
+        <v>19.39940973313773</v>
       </c>
       <c r="J2">
-        <v>5.84936565536423</v>
+        <v>9.257995831723399</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.59813179089234</v>
+        <v>16.51539280739487</v>
       </c>
       <c r="O2">
-        <v>15.04583808435147</v>
+        <v>21.81269242259754</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.31005962194722</v>
+        <v>13.44591234690282</v>
       </c>
       <c r="C3">
-        <v>14.42040388546414</v>
+        <v>8.644101103452142</v>
       </c>
       <c r="D3">
-        <v>11.69571329400023</v>
+        <v>14.77510407306477</v>
       </c>
       <c r="E3">
-        <v>12.65936760736774</v>
+        <v>16.1765548725051</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.26161274022134</v>
+        <v>29.20061464195817</v>
       </c>
       <c r="H3">
-        <v>8.751512866855586</v>
+        <v>14.30319562245235</v>
       </c>
       <c r="I3">
-        <v>11.66452587712523</v>
+        <v>19.4996097954302</v>
       </c>
       <c r="J3">
-        <v>5.750545119112563</v>
+        <v>9.264740972692078</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.67828939992612</v>
+        <v>16.55108749127059</v>
       </c>
       <c r="O3">
-        <v>14.75634565181631</v>
+        <v>21.85160147946895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.4193717835334</v>
+        <v>13.0907732196211</v>
       </c>
       <c r="C4">
-        <v>13.76553523614374</v>
+        <v>8.323285427811443</v>
       </c>
       <c r="D4">
-        <v>11.36556081596499</v>
+        <v>14.7374645569726</v>
       </c>
       <c r="E4">
-        <v>12.30889737933187</v>
+        <v>16.13924414589047</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.64066975727723</v>
+        <v>29.16816003102913</v>
       </c>
       <c r="H4">
-        <v>8.729730780211041</v>
+        <v>14.33013901600449</v>
       </c>
       <c r="I4">
-        <v>11.75788116812593</v>
+        <v>19.5656577325697</v>
       </c>
       <c r="J4">
-        <v>5.692310286112397</v>
+        <v>9.270307462054827</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.73120531746223</v>
+        <v>16.57475533034225</v>
       </c>
       <c r="O4">
-        <v>14.59185951914344</v>
+        <v>21.88125219428225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.04374857007373</v>
+        <v>12.94347732026318</v>
       </c>
       <c r="C5">
-        <v>13.4895254752359</v>
+        <v>8.188891969132058</v>
       </c>
       <c r="D5">
-        <v>11.23014291563678</v>
+        <v>14.72296384944497</v>
       </c>
       <c r="E5">
-        <v>12.16531296586172</v>
+        <v>16.12496438482972</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.39052530237597</v>
+        <v>29.15771385426775</v>
       </c>
       <c r="H5">
-        <v>8.722633471578815</v>
+        <v>14.34182216423614</v>
       </c>
       <c r="I5">
-        <v>11.79905758718652</v>
+        <v>19.59370833847844</v>
       </c>
       <c r="J5">
-        <v>5.66920324676725</v>
+        <v>9.272934381340752</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.75367981335491</v>
+        <v>16.58484118958395</v>
       </c>
       <c r="O5">
-        <v>14.52814665413355</v>
+        <v>21.89477935190897</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.98061031870986</v>
+        <v>12.91887002249256</v>
       </c>
       <c r="C6">
-        <v>13.44314111318356</v>
+        <v>8.166358846380181</v>
       </c>
       <c r="D6">
-        <v>11.20760993960411</v>
+        <v>14.72060694043558</v>
       </c>
       <c r="E6">
-        <v>12.14143110686557</v>
+        <v>16.12264940001853</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.34917485047766</v>
+        <v>29.15614725303095</v>
       </c>
       <c r="H6">
-        <v>8.721560633267934</v>
+        <v>14.3438045944764</v>
       </c>
       <c r="I6">
-        <v>11.80607889463588</v>
+        <v>19.59843463939814</v>
       </c>
       <c r="J6">
-        <v>5.665404311817306</v>
+        <v>9.273392238175406</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.7574661623313</v>
+        <v>16.58654259565411</v>
       </c>
       <c r="O6">
-        <v>14.51776669974297</v>
+        <v>21.89711262095302</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.41435733487723</v>
+        <v>13.08879686563856</v>
       </c>
       <c r="C7">
-        <v>13.76184993861404</v>
+        <v>8.321487596820553</v>
       </c>
       <c r="D7">
-        <v>11.36373780594529</v>
+        <v>14.73726558857482</v>
       </c>
       <c r="E7">
-        <v>12.30696376002031</v>
+        <v>16.13904780586392</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.63728400522698</v>
+        <v>29.16800789116779</v>
       </c>
       <c r="H7">
-        <v>8.729627940455341</v>
+        <v>14.33029373228238</v>
       </c>
       <c r="I7">
-        <v>11.75842403960214</v>
+        <v>19.56603143805194</v>
       </c>
       <c r="J7">
-        <v>5.691996116763659</v>
+        <v>9.270341437714935</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.73150475284334</v>
+        <v>16.57488956518288</v>
       </c>
       <c r="O7">
-        <v>14.59098687039493</v>
+        <v>21.88142878457665</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.21739321828814</v>
+        <v>13.8154909491428</v>
       </c>
       <c r="C8">
-        <v>15.08803509686644</v>
+        <v>8.973609024141966</v>
       </c>
       <c r="D8">
-        <v>12.04446493364223</v>
+        <v>14.81809903321325</v>
       </c>
       <c r="E8">
-        <v>13.03015595405679</v>
+        <v>16.21949769586953</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.93307984233154</v>
+        <v>29.24473012709266</v>
       </c>
       <c r="H8">
-        <v>8.781006220018915</v>
+        <v>14.27685268354031</v>
       </c>
       <c r="I8">
-        <v>11.57613938831286</v>
+        <v>19.43301826045362</v>
       </c>
       <c r="J8">
-        <v>5.814792059360776</v>
+        <v>9.260025962042304</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.6249904024002</v>
+        <v>16.52733728710481</v>
       </c>
       <c r="O8">
-        <v>14.9432607937283</v>
+        <v>21.82491029365841</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.35833453758367</v>
+        <v>15.14491352638535</v>
       </c>
       <c r="C9">
-        <v>17.40283195178208</v>
+        <v>10.12943330716353</v>
       </c>
       <c r="D9">
-        <v>13.33837494644551</v>
+        <v>15.00209057427476</v>
       </c>
       <c r="E9">
-        <v>14.41012466271049</v>
+        <v>16.40551708874919</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.53941654500433</v>
+        <v>29.48220982763124</v>
       </c>
       <c r="H9">
-        <v>8.942311451423979</v>
+        <v>14.19434478557109</v>
       </c>
       <c r="I9">
-        <v>11.33228268637816</v>
+        <v>19.20818230078014</v>
       </c>
       <c r="J9">
-        <v>6.074485850301627</v>
+        <v>9.251091661787845</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.44640571704523</v>
+        <v>16.44795245824524</v>
       </c>
       <c r="O9">
-        <v>15.73959494098292</v>
+        <v>21.75995204865617</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.42950899523814</v>
+        <v>16.05433656916108</v>
       </c>
       <c r="C10">
-        <v>18.93205692563419</v>
+        <v>10.89953114463716</v>
       </c>
       <c r="D10">
-        <v>14.25613689621545</v>
+        <v>15.15195620446312</v>
       </c>
       <c r="E10">
-        <v>15.39230622877336</v>
+        <v>16.55858986255313</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.47723743644557</v>
+        <v>29.70885132578004</v>
       </c>
       <c r="H10">
-        <v>9.101017400526798</v>
+        <v>14.14738401373901</v>
       </c>
       <c r="I10">
-        <v>11.23521426972894</v>
+        <v>19.06508353770382</v>
       </c>
       <c r="J10">
-        <v>6.276158370467274</v>
+        <v>9.251393057656971</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.33508413335668</v>
+        <v>16.39804143785009</v>
       </c>
       <c r="O10">
-        <v>16.38883474979363</v>
+        <v>21.74039065652627</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.32136776317821</v>
+        <v>16.45193541618388</v>
       </c>
       <c r="C11">
-        <v>19.59121077122827</v>
+        <v>11.2321003823563</v>
       </c>
       <c r="D11">
-        <v>14.66532693511832</v>
+        <v>15.22312286689083</v>
       </c>
       <c r="E11">
-        <v>15.83098326601636</v>
+        <v>16.6315915760071</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.36108516019295</v>
+        <v>29.82301383247187</v>
       </c>
       <c r="H11">
-        <v>9.182592280553743</v>
+        <v>14.12899942728973</v>
       </c>
       <c r="I11">
-        <v>11.21182385640216</v>
+        <v>19.00481178712047</v>
       </c>
       <c r="J11">
-        <v>6.370139279183543</v>
+        <v>9.253014815230017</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.2891063367871</v>
+        <v>16.37715429616105</v>
       </c>
       <c r="O11">
-        <v>16.69798383842273</v>
+        <v>21.73763705262748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.6519371673529</v>
+        <v>16.60007757989359</v>
       </c>
       <c r="C12">
-        <v>19.83562863236853</v>
+        <v>11.35544673870198</v>
       </c>
       <c r="D12">
-        <v>14.8190126893206</v>
+        <v>15.250483879824</v>
       </c>
       <c r="E12">
-        <v>15.9958568066349</v>
+        <v>16.65970167257866</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.69594574790413</v>
+        <v>29.86780657339673</v>
       </c>
       <c r="H12">
-        <v>9.214880609183174</v>
+        <v>14.12246688210066</v>
       </c>
       <c r="I12">
-        <v>11.20620500014949</v>
+        <v>18.98268501002301</v>
       </c>
       <c r="J12">
-        <v>6.406039976551512</v>
+        <v>9.253841711215733</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.27239825592124</v>
+        <v>16.36950563269772</v>
       </c>
       <c r="O12">
-        <v>16.8170205985173</v>
+        <v>21.73747933234222</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.58106019227793</v>
+        <v>16.56828164269677</v>
       </c>
       <c r="C13">
-        <v>19.78321868560705</v>
+        <v>11.32899761367889</v>
       </c>
       <c r="D13">
-        <v>14.78597091904097</v>
+        <v>15.24457318639277</v>
       </c>
       <c r="E13">
-        <v>15.96040463415579</v>
+        <v>16.65362723977853</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.62382226445116</v>
+        <v>29.85809068637843</v>
       </c>
       <c r="H13">
-        <v>9.207863817977309</v>
+        <v>14.12385467362895</v>
       </c>
       <c r="I13">
-        <v>11.20726701231939</v>
+        <v>18.98741936649585</v>
       </c>
       <c r="J13">
-        <v>6.398294372394813</v>
+        <v>9.253654173852972</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.27596484670325</v>
+        <v>16.37114131644607</v>
       </c>
       <c r="O13">
-        <v>16.7912965841916</v>
+        <v>21.73747392445566</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.34870690060251</v>
+        <v>16.4641722039222</v>
       </c>
       <c r="C14">
-        <v>19.61142282525529</v>
+        <v>11.24230026270408</v>
       </c>
       <c r="D14">
-        <v>14.67799645528086</v>
+        <v>15.22536573062708</v>
       </c>
       <c r="E14">
-        <v>15.84457279672092</v>
+        <v>16.63389498098404</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.38863178834687</v>
+        <v>29.82666783342929</v>
       </c>
       <c r="H14">
-        <v>9.185220375359696</v>
+        <v>14.12845338137903</v>
       </c>
       <c r="I14">
-        <v>11.21129521983585</v>
+        <v>19.00297742068474</v>
       </c>
       <c r="J14">
-        <v>6.373086644746798</v>
+        <v>9.253078584689002</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.28771747597633</v>
+        <v>16.37651981131204</v>
       </c>
       <c r="O14">
-        <v>16.7077376960857</v>
+        <v>21.73760633449364</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.20545400898515</v>
+        <v>16.40008418464504</v>
       </c>
       <c r="C15">
-        <v>19.50551891445954</v>
+        <v>11.18885731191929</v>
       </c>
       <c r="D15">
-        <v>14.61169238996282</v>
+        <v>15.21365366826469</v>
       </c>
       <c r="E15">
-        <v>15.77345858552338</v>
+        <v>16.62186852028081</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.24458839380097</v>
+        <v>29.80762291576786</v>
       </c>
       <c r="H15">
-        <v>9.171534053796481</v>
+        <v>14.1313261596895</v>
       </c>
       <c r="I15">
-        <v>11.21419195211567</v>
+        <v>19.01259801725939</v>
       </c>
       <c r="J15">
-        <v>6.357686575836269</v>
+        <v>9.252753705732079</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.29500881388346</v>
+        <v>16.37984824874512</v>
       </c>
       <c r="O15">
-        <v>16.65681138929953</v>
+        <v>21.73780272315331</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.3702178550938</v>
+        <v>16.02801925616097</v>
       </c>
       <c r="C16">
-        <v>18.88825017731987</v>
+        <v>10.8774363284775</v>
       </c>
       <c r="D16">
-        <v>14.22922167108948</v>
+        <v>15.14736393838423</v>
       </c>
       <c r="E16">
-        <v>15.36346720081143</v>
+        <v>16.55388525094682</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.41950723702143</v>
+        <v>29.70161075036683</v>
       </c>
       <c r="H16">
-        <v>9.095879255329022</v>
+        <v>14.14864550863222</v>
       </c>
       <c r="I16">
-        <v>11.23718221277851</v>
+        <v>19.06911978135794</v>
       </c>
       <c r="J16">
-        <v>6.270060675988068</v>
+        <v>9.251316887822252</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.33818541432974</v>
+        <v>16.39944299157704</v>
       </c>
       <c r="O16">
-        <v>16.36890749155863</v>
+        <v>21.74069439586391</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.84499217157002</v>
+        <v>15.79556609282588</v>
       </c>
       <c r="C17">
-        <v>18.50026831602518</v>
+        <v>10.68181331273315</v>
       </c>
       <c r="D17">
-        <v>13.99240377490513</v>
+        <v>15.1074507454971</v>
       </c>
       <c r="E17">
-        <v>15.10980918141451</v>
+        <v>16.51302956064399</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.91380722153199</v>
+        <v>29.6393895984109</v>
       </c>
       <c r="H17">
-        <v>9.051905191963234</v>
+        <v>14.16003390796051</v>
       </c>
       <c r="I17">
-        <v>11.25678254798629</v>
+        <v>19.1050319021958</v>
       </c>
       <c r="J17">
-        <v>6.216871010115961</v>
+        <v>9.250815222248983</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.36588925567149</v>
+        <v>16.41192889064417</v>
       </c>
       <c r="O17">
-        <v>16.19581170359981</v>
+        <v>21.74404340349613</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.53815409882506</v>
+        <v>15.6603547649622</v>
       </c>
       <c r="C18">
-        <v>18.27367221702806</v>
+        <v>10.56762685901764</v>
       </c>
       <c r="D18">
-        <v>13.85541363137781</v>
+        <v>15.08477651647233</v>
       </c>
       <c r="E18">
-        <v>14.96315035556232</v>
+        <v>16.48984863224339</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.62316761212</v>
+        <v>29.60464481530848</v>
       </c>
       <c r="H18">
-        <v>9.027492464529908</v>
+        <v>14.16686446989164</v>
       </c>
       <c r="I18">
-        <v>11.26999526212035</v>
+        <v>19.12614153121256</v>
       </c>
       <c r="J18">
-        <v>6.186488973119861</v>
+        <v>9.250666469442594</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.38226059391691</v>
+        <v>16.41928156459155</v>
       </c>
       <c r="O18">
-        <v>16.09755213935388</v>
+        <v>21.74654801757501</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.43344718275583</v>
+        <v>15.61431855086007</v>
       </c>
       <c r="C19">
-        <v>18.19635826031531</v>
+        <v>10.5286798791182</v>
       </c>
       <c r="D19">
-        <v>13.80889989203389</v>
+        <v>15.07714853185754</v>
       </c>
       <c r="E19">
-        <v>14.91336610520491</v>
+        <v>16.48205516320587</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.52480668839605</v>
+        <v>29.59306081693789</v>
       </c>
       <c r="H19">
-        <v>9.019376344074233</v>
+        <v>14.16922528156199</v>
       </c>
       <c r="I19">
-        <v>11.27479430794089</v>
+        <v>19.13336675919947</v>
       </c>
       <c r="J19">
-        <v>6.176238745999922</v>
+        <v>9.250640133933087</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.38787773290226</v>
+        <v>16.42180045914742</v>
       </c>
       <c r="O19">
-        <v>16.06450704298792</v>
+        <v>21.74749531704962</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.90139357591894</v>
+        <v>15.82046825589468</v>
       </c>
       <c r="C20">
-        <v>18.54192517742042</v>
+        <v>10.70281077959471</v>
       </c>
       <c r="D20">
-        <v>14.01769462617345</v>
+        <v>15.11167043761016</v>
       </c>
       <c r="E20">
-        <v>15.13689093904508</v>
+        <v>16.51734591836915</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.96761786358088</v>
+        <v>29.64590537908487</v>
       </c>
       <c r="H20">
-        <v>9.05649486842926</v>
+        <v>14.15879258006911</v>
       </c>
       <c r="I20">
-        <v>11.25449355636914</v>
+        <v>19.10116199392279</v>
       </c>
       <c r="J20">
-        <v>6.222511353539237</v>
+        <v>9.250854162345156</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.36289470006879</v>
+        <v>16.41058203946849</v>
       </c>
       <c r="O20">
-        <v>16.21410356977038</v>
+        <v>21.74362702643695</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.41714831579499</v>
+        <v>16.49481810235608</v>
       </c>
       <c r="C21">
-        <v>19.66202378028343</v>
+        <v>11.26783593751418</v>
       </c>
       <c r="D21">
-        <v>14.70974598809071</v>
+        <v>15.23099640261437</v>
       </c>
       <c r="E21">
-        <v>15.87862966885297</v>
+        <v>16.63967832926282</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.45770950245157</v>
+        <v>29.8358553452142</v>
       </c>
       <c r="H21">
-        <v>9.191832989749251</v>
+        <v>14.12709097046193</v>
       </c>
       <c r="I21">
-        <v>11.21002210665026</v>
+        <v>18.99838870669914</v>
       </c>
       <c r="J21">
-        <v>6.3804823626552</v>
+        <v>9.253241880865188</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.28424610315153</v>
+        <v>16.37493294193474</v>
       </c>
       <c r="O21">
-        <v>16.73222765873407</v>
+        <v>21.73754341592925</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.36609791277279</v>
+        <v>16.92140157676057</v>
       </c>
       <c r="C22">
-        <v>20.36385574579695</v>
+        <v>11.62200187417934</v>
       </c>
       <c r="D22">
-        <v>15.15464578871623</v>
+        <v>15.3113736767607</v>
       </c>
       <c r="E22">
-        <v>16.35612869517459</v>
+        <v>16.72233633186319</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.43249883680839</v>
+        <v>29.96908666214194</v>
       </c>
       <c r="H22">
-        <v>9.288452498566027</v>
+        <v>14.10887484103133</v>
       </c>
       <c r="I22">
-        <v>11.19995461122176</v>
+        <v>18.93528352317043</v>
       </c>
       <c r="J22">
-        <v>6.485541912992032</v>
+        <v>9.256042181770891</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.23695745039144</v>
+        <v>16.35315435482872</v>
       </c>
       <c r="O22">
-        <v>17.08232131934586</v>
+        <v>21.73872610115401</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.86341258997594</v>
+        <v>16.69505072564395</v>
       </c>
       <c r="C23">
-        <v>19.99201904663017</v>
+        <v>11.43436981734828</v>
       </c>
       <c r="D23">
-        <v>14.91788939089854</v>
+        <v>15.26826235200912</v>
       </c>
       <c r="E23">
-        <v>16.10196300714318</v>
+        <v>16.67797882870822</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.9121931410639</v>
+        <v>29.89715746071904</v>
       </c>
       <c r="H23">
-        <v>9.236121760830111</v>
+        <v>14.11836781054782</v>
       </c>
       <c r="I23">
-        <v>11.20350498679358</v>
+        <v>18.96859114785191</v>
       </c>
       <c r="J23">
-        <v>6.429306213126641</v>
+        <v>9.254434432130868</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.26180866580909</v>
+        <v>16.36463907421587</v>
       </c>
       <c r="O23">
-        <v>16.89442506836757</v>
+        <v>21.73762258078747</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.87590970342047</v>
+        <v>15.80921487289701</v>
       </c>
       <c r="C24">
-        <v>18.52310314160083</v>
+        <v>10.69332317988087</v>
       </c>
       <c r="D24">
-        <v>14.00626324425166</v>
+        <v>15.10976186492669</v>
       </c>
       <c r="E24">
-        <v>15.12464984772291</v>
+        <v>16.51539353367433</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.94328976601395</v>
+        <v>29.64295639346352</v>
       </c>
       <c r="H24">
-        <v>9.054417174103236</v>
+        <v>14.15935290225129</v>
       </c>
       <c r="I24">
-        <v>11.25552237273746</v>
+        <v>19.10291013658157</v>
       </c>
       <c r="J24">
-        <v>6.21996073861794</v>
+        <v>9.250836122442161</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.3642471580042</v>
+        <v>16.41119040769747</v>
       </c>
       <c r="O24">
-        <v>16.20582990512199</v>
+        <v>21.74381346633101</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.55047199251853</v>
+        <v>14.79651672213136</v>
       </c>
       <c r="C25">
-        <v>16.80694888210647</v>
+        <v>9.830399924833976</v>
       </c>
       <c r="D25">
-        <v>12.99363236076521</v>
+        <v>14.94967163685733</v>
       </c>
       <c r="E25">
-        <v>14.04185982842511</v>
+        <v>16.35224931465799</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.82923519473835</v>
+        <v>29.40872486113652</v>
       </c>
       <c r="H25">
-        <v>8.891842355608256</v>
+        <v>14.21427162856225</v>
       </c>
       <c r="I25">
-        <v>11.38480256391559</v>
+        <v>19.26513783562923</v>
       </c>
       <c r="J25">
-        <v>6.002275816920513</v>
+        <v>9.252301160884292</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.49133578753481</v>
+        <v>16.46794793573109</v>
       </c>
       <c r="O25">
-        <v>15.51285682119825</v>
+        <v>21.77259110148477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.00630148620626</v>
+        <v>20.67905897454031</v>
       </c>
       <c r="C2">
-        <v>9.142167332841243</v>
+        <v>15.42792743461175</v>
       </c>
       <c r="D2">
-        <v>14.84175391807416</v>
+        <v>12.22648207523459</v>
       </c>
       <c r="E2">
-        <v>16.24323577641535</v>
+        <v>13.22388897171504</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.27143134070009</v>
+        <v>25.28930617766697</v>
       </c>
       <c r="H2">
-        <v>14.26387854240084</v>
+        <v>8.798896919906332</v>
       </c>
       <c r="I2">
-        <v>19.39940973313773</v>
+        <v>11.53398368394911</v>
       </c>
       <c r="J2">
-        <v>9.257995831723399</v>
+        <v>5.849365655364238</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.51539280739487</v>
+        <v>11.59813179089234</v>
       </c>
       <c r="O2">
-        <v>21.81269242259754</v>
+        <v>15.04583808435142</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.44591234690282</v>
+        <v>19.31005962194721</v>
       </c>
       <c r="C3">
-        <v>8.644101103452142</v>
+        <v>14.42040388546415</v>
       </c>
       <c r="D3">
-        <v>14.77510407306477</v>
+        <v>11.6957132940003</v>
       </c>
       <c r="E3">
-        <v>16.1765548725051</v>
+        <v>12.65936760736776</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.20061464195817</v>
+        <v>24.26161274022145</v>
       </c>
       <c r="H3">
-        <v>14.30319562245235</v>
+        <v>8.751512866855579</v>
       </c>
       <c r="I3">
-        <v>19.4996097954302</v>
+        <v>11.6645258771253</v>
       </c>
       <c r="J3">
-        <v>9.264740972692078</v>
+        <v>5.750545119112581</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.55108749127059</v>
+        <v>11.67828939992615</v>
       </c>
       <c r="O3">
-        <v>21.85160147946895</v>
+        <v>14.75634565181639</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0907732196211</v>
+        <v>18.4193717835334</v>
       </c>
       <c r="C4">
-        <v>8.323285427811443</v>
+        <v>13.76553523614372</v>
       </c>
       <c r="D4">
-        <v>14.7374645569726</v>
+        <v>11.36556081596505</v>
       </c>
       <c r="E4">
-        <v>16.13924414589047</v>
+        <v>12.30889737933189</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.16816003102913</v>
+        <v>23.64066975727727</v>
       </c>
       <c r="H4">
-        <v>14.33013901600449</v>
+        <v>8.729730780211106</v>
       </c>
       <c r="I4">
-        <v>19.5656577325697</v>
+        <v>11.75788116812602</v>
       </c>
       <c r="J4">
-        <v>9.270307462054827</v>
+        <v>5.692310286112415</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.57475533034225</v>
+        <v>11.73120531746232</v>
       </c>
       <c r="O4">
-        <v>21.88125219428225</v>
+        <v>14.59185951914351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94347732026318</v>
+        <v>18.04374857007381</v>
       </c>
       <c r="C5">
-        <v>8.188891969132058</v>
+        <v>13.48952547523594</v>
       </c>
       <c r="D5">
-        <v>14.72296384944497</v>
+        <v>11.23014291563671</v>
       </c>
       <c r="E5">
-        <v>16.12496438482972</v>
+        <v>12.16531296586169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.15771385426775</v>
+        <v>23.39052530237571</v>
       </c>
       <c r="H5">
-        <v>14.34182216423614</v>
+        <v>8.722633471578762</v>
       </c>
       <c r="I5">
-        <v>19.59370833847844</v>
+        <v>11.79905758718633</v>
       </c>
       <c r="J5">
-        <v>9.272934381340752</v>
+        <v>5.669203246767227</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.58484118958395</v>
+        <v>11.75367981335485</v>
       </c>
       <c r="O5">
-        <v>21.89477935190897</v>
+        <v>14.52814665413334</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.91887002249256</v>
+        <v>17.98061031870986</v>
       </c>
       <c r="C6">
-        <v>8.166358846380181</v>
+        <v>13.44314111318348</v>
       </c>
       <c r="D6">
-        <v>14.72060694043558</v>
+        <v>11.20760993960406</v>
       </c>
       <c r="E6">
-        <v>16.12264940001853</v>
+        <v>12.14143110686555</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.15614725303095</v>
+        <v>23.34917485047768</v>
       </c>
       <c r="H6">
-        <v>14.3438045944764</v>
+        <v>8.721560633267941</v>
       </c>
       <c r="I6">
-        <v>19.59843463939814</v>
+        <v>11.80607889463588</v>
       </c>
       <c r="J6">
-        <v>9.273392238175406</v>
+        <v>5.665404311817277</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.58654259565411</v>
+        <v>11.7574661623313</v>
       </c>
       <c r="O6">
-        <v>21.89711262095302</v>
+        <v>14.51776669974302</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.08879686563856</v>
+        <v>18.41435733487724</v>
       </c>
       <c r="C7">
-        <v>8.321487596820553</v>
+        <v>13.76184993861387</v>
       </c>
       <c r="D7">
-        <v>14.73726558857482</v>
+        <v>11.3637378059452</v>
       </c>
       <c r="E7">
-        <v>16.13904780586392</v>
+        <v>12.30696376002026</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.16800789116779</v>
+        <v>23.63728400522699</v>
       </c>
       <c r="H7">
-        <v>14.33029373228238</v>
+        <v>8.729627940455389</v>
       </c>
       <c r="I7">
-        <v>19.56603143805194</v>
+        <v>11.75842403960215</v>
       </c>
       <c r="J7">
-        <v>9.270341437714935</v>
+        <v>5.691996116763708</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.57488956518288</v>
+        <v>11.73150475284333</v>
       </c>
       <c r="O7">
-        <v>21.88142878457665</v>
+        <v>14.59098687039495</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8154909491428</v>
+        <v>20.2173932182882</v>
       </c>
       <c r="C8">
-        <v>8.973609024141966</v>
+        <v>15.08803509686643</v>
       </c>
       <c r="D8">
-        <v>14.81809903321325</v>
+        <v>12.04446493364225</v>
       </c>
       <c r="E8">
-        <v>16.21949769586953</v>
+        <v>13.03015595405677</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.24473012709266</v>
+        <v>24.93307984233142</v>
       </c>
       <c r="H8">
-        <v>14.27685268354031</v>
+        <v>8.781006220018824</v>
       </c>
       <c r="I8">
-        <v>19.43301826045362</v>
+        <v>11.57613938831273</v>
       </c>
       <c r="J8">
-        <v>9.260025962042304</v>
+        <v>5.81479205936082</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.52733728710481</v>
+        <v>11.62499040240017</v>
       </c>
       <c r="O8">
-        <v>21.82491029365841</v>
+        <v>14.94326079372818</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.14491352638535</v>
+        <v>23.35833453758367</v>
       </c>
       <c r="C9">
-        <v>10.12943330716353</v>
+        <v>17.4028319517821</v>
       </c>
       <c r="D9">
-        <v>15.00209057427476</v>
+        <v>13.33837494644544</v>
       </c>
       <c r="E9">
-        <v>16.40551708874919</v>
+        <v>14.41012466271043</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.48220982763124</v>
+        <v>27.53941654500433</v>
       </c>
       <c r="H9">
-        <v>14.19434478557109</v>
+        <v>8.942311451423979</v>
       </c>
       <c r="I9">
-        <v>19.20818230078014</v>
+        <v>11.33228268637817</v>
       </c>
       <c r="J9">
-        <v>9.251091661787845</v>
+        <v>6.074485850301617</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.44795245824524</v>
+        <v>11.44640571704522</v>
       </c>
       <c r="O9">
-        <v>21.75995204865617</v>
+        <v>15.73959494098292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.05433656916108</v>
+        <v>25.42950899523819</v>
       </c>
       <c r="C10">
-        <v>10.89953114463716</v>
+        <v>18.93205692563416</v>
       </c>
       <c r="D10">
-        <v>15.15195620446312</v>
+        <v>14.25613689621545</v>
       </c>
       <c r="E10">
-        <v>16.55858986255313</v>
+        <v>15.39230622877335</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.70885132578004</v>
+        <v>29.47723743644558</v>
       </c>
       <c r="H10">
-        <v>14.14738401373901</v>
+        <v>9.101017400526779</v>
       </c>
       <c r="I10">
-        <v>19.06508353770382</v>
+        <v>11.2352142697289</v>
       </c>
       <c r="J10">
-        <v>9.251393057656971</v>
+        <v>6.276158370467286</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.39804143785009</v>
+        <v>11.33508413335661</v>
       </c>
       <c r="O10">
-        <v>21.74039065652627</v>
+        <v>16.38883474979361</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.45193541618388</v>
+        <v>26.32136776317823</v>
       </c>
       <c r="C11">
-        <v>11.2321003823563</v>
+        <v>19.59121077122821</v>
       </c>
       <c r="D11">
-        <v>15.22312286689083</v>
+        <v>14.66532693511833</v>
       </c>
       <c r="E11">
-        <v>16.6315915760071</v>
+        <v>15.83098326601636</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.82301383247187</v>
+        <v>30.36108516019297</v>
       </c>
       <c r="H11">
-        <v>14.12899942728973</v>
+        <v>9.182592280553749</v>
       </c>
       <c r="I11">
-        <v>19.00481178712047</v>
+        <v>11.21182385640211</v>
       </c>
       <c r="J11">
-        <v>9.253014815230017</v>
+        <v>6.370139279183517</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.37715429616105</v>
+        <v>11.28910633678704</v>
       </c>
       <c r="O11">
-        <v>21.73763705262748</v>
+        <v>16.69798383842274</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.60007757989359</v>
+        <v>26.65193716735286</v>
       </c>
       <c r="C12">
-        <v>11.35544673870198</v>
+        <v>19.83562863236859</v>
       </c>
       <c r="D12">
-        <v>15.250483879824</v>
+        <v>14.8190126893206</v>
       </c>
       <c r="E12">
-        <v>16.65970167257866</v>
+        <v>15.9958568066349</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.86780657339673</v>
+        <v>30.69594574790416</v>
       </c>
       <c r="H12">
-        <v>14.12246688210066</v>
+        <v>9.214880609183217</v>
       </c>
       <c r="I12">
-        <v>18.98268501002301</v>
+        <v>11.2062050001496</v>
       </c>
       <c r="J12">
-        <v>9.253841711215733</v>
+        <v>6.406039976551499</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.36950563269772</v>
+        <v>11.27239825592127</v>
       </c>
       <c r="O12">
-        <v>21.73747933234222</v>
+        <v>16.81702059851737</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.56828164269677</v>
+        <v>26.58106019227793</v>
       </c>
       <c r="C13">
-        <v>11.32899761367889</v>
+        <v>19.78321868560706</v>
       </c>
       <c r="D13">
-        <v>15.24457318639277</v>
+        <v>14.78597091904098</v>
       </c>
       <c r="E13">
-        <v>16.65362723977853</v>
+        <v>15.96040463415581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.85809068637843</v>
+        <v>30.6238222644512</v>
       </c>
       <c r="H13">
-        <v>14.12385467362895</v>
+        <v>9.207863817977325</v>
       </c>
       <c r="I13">
-        <v>18.98741936649585</v>
+        <v>11.20726701231947</v>
       </c>
       <c r="J13">
-        <v>9.253654173852972</v>
+        <v>6.398294372394832</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.37114131644607</v>
+        <v>11.2759648467033</v>
       </c>
       <c r="O13">
-        <v>21.73747392445566</v>
+        <v>16.79129658419162</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.4641722039222</v>
+        <v>26.34870690060245</v>
       </c>
       <c r="C14">
-        <v>11.24230026270408</v>
+        <v>19.61142282525536</v>
       </c>
       <c r="D14">
-        <v>15.22536573062708</v>
+        <v>14.67799645528088</v>
       </c>
       <c r="E14">
-        <v>16.63389498098404</v>
+        <v>15.84457279672095</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.82666783342929</v>
+        <v>30.38863178834695</v>
       </c>
       <c r="H14">
-        <v>14.12845338137903</v>
+        <v>9.185220375359787</v>
       </c>
       <c r="I14">
-        <v>19.00297742068474</v>
+        <v>11.21129521983598</v>
       </c>
       <c r="J14">
-        <v>9.253078584689002</v>
+        <v>6.373086644746791</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.37651981131204</v>
+        <v>11.28771747597635</v>
       </c>
       <c r="O14">
-        <v>21.73760633449364</v>
+        <v>16.70773769608579</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.40008418464504</v>
+        <v>26.20545400898515</v>
       </c>
       <c r="C15">
-        <v>11.18885731191929</v>
+        <v>19.50551891445956</v>
       </c>
       <c r="D15">
-        <v>15.21365366826469</v>
+        <v>14.61169238996283</v>
       </c>
       <c r="E15">
-        <v>16.62186852028081</v>
+        <v>15.77345858552339</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.80762291576786</v>
+        <v>30.24458839380103</v>
       </c>
       <c r="H15">
-        <v>14.1313261596895</v>
+        <v>9.171534053796487</v>
       </c>
       <c r="I15">
-        <v>19.01259801725939</v>
+        <v>11.21419195211569</v>
       </c>
       <c r="J15">
-        <v>9.252753705732079</v>
+        <v>6.357686575836283</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.37984824874512</v>
+        <v>11.29500881388349</v>
       </c>
       <c r="O15">
-        <v>21.73780272315331</v>
+        <v>16.65681138929958</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.02801925616097</v>
+        <v>25.37021785509381</v>
       </c>
       <c r="C16">
-        <v>10.8774363284775</v>
+        <v>18.8882501773199</v>
       </c>
       <c r="D16">
-        <v>15.14736393838423</v>
+        <v>14.22922167108943</v>
       </c>
       <c r="E16">
-        <v>16.55388525094682</v>
+        <v>15.36346720081142</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.70161075036683</v>
+        <v>29.41950723702145</v>
       </c>
       <c r="H16">
-        <v>14.14864550863222</v>
+        <v>9.095879255329029</v>
       </c>
       <c r="I16">
-        <v>19.06911978135794</v>
+        <v>11.23718221277855</v>
       </c>
       <c r="J16">
-        <v>9.251316887822252</v>
+        <v>6.270060675988071</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.39944299157704</v>
+        <v>11.33818541432973</v>
       </c>
       <c r="O16">
-        <v>21.74069439586391</v>
+        <v>16.36890749155863</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.79556609282588</v>
+        <v>24.84499217157003</v>
       </c>
       <c r="C17">
-        <v>10.68181331273315</v>
+        <v>18.50026831602521</v>
       </c>
       <c r="D17">
-        <v>15.1074507454971</v>
+        <v>13.99240377490512</v>
       </c>
       <c r="E17">
-        <v>16.51302956064399</v>
+        <v>15.10980918141453</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.6393895984109</v>
+        <v>28.91380722153201</v>
       </c>
       <c r="H17">
-        <v>14.16003390796051</v>
+        <v>9.051905191963248</v>
       </c>
       <c r="I17">
-        <v>19.1050319021958</v>
+        <v>11.25678254798631</v>
       </c>
       <c r="J17">
-        <v>9.250815222248983</v>
+        <v>6.216871010115975</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.41192889064417</v>
+        <v>11.36588925567148</v>
       </c>
       <c r="O17">
-        <v>21.74404340349613</v>
+        <v>16.19581170359983</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6603547649622</v>
+        <v>24.53815409882512</v>
       </c>
       <c r="C18">
-        <v>10.56762685901764</v>
+        <v>18.27367221702797</v>
       </c>
       <c r="D18">
-        <v>15.08477651647233</v>
+        <v>13.85541363137778</v>
       </c>
       <c r="E18">
-        <v>16.48984863224339</v>
+        <v>14.96315035556233</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.60464481530848</v>
+        <v>28.6231676121201</v>
       </c>
       <c r="H18">
-        <v>14.16686446989164</v>
+        <v>9.027492464529937</v>
       </c>
       <c r="I18">
-        <v>19.12614153121256</v>
+        <v>11.26999526212036</v>
       </c>
       <c r="J18">
-        <v>9.250666469442594</v>
+        <v>6.18648897311988</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.41928156459155</v>
+        <v>11.38226059391691</v>
       </c>
       <c r="O18">
-        <v>21.74654801757501</v>
+        <v>16.09755213935395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61431855086007</v>
+        <v>24.43344718275581</v>
       </c>
       <c r="C19">
-        <v>10.5286798791182</v>
+        <v>18.19635826031541</v>
       </c>
       <c r="D19">
-        <v>15.07714853185754</v>
+        <v>13.80889989203394</v>
       </c>
       <c r="E19">
-        <v>16.48205516320587</v>
+        <v>14.91336610520493</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.59306081693789</v>
+        <v>28.52480668839614</v>
       </c>
       <c r="H19">
-        <v>14.16922528156199</v>
+        <v>9.01937634407424</v>
       </c>
       <c r="I19">
-        <v>19.13336675919947</v>
+        <v>11.27479430794095</v>
       </c>
       <c r="J19">
-        <v>9.250640133933087</v>
+        <v>6.176238745999953</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.42180045914742</v>
+        <v>11.38787773290228</v>
       </c>
       <c r="O19">
-        <v>21.74749531704962</v>
+        <v>16.06450704298794</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.82046825589468</v>
+        <v>24.90139357591897</v>
       </c>
       <c r="C20">
-        <v>10.70281077959471</v>
+        <v>18.54192517742042</v>
       </c>
       <c r="D20">
-        <v>15.11167043761016</v>
+        <v>14.01769462617344</v>
       </c>
       <c r="E20">
-        <v>16.51734591836915</v>
+        <v>15.13689093904506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.64590537908487</v>
+        <v>28.96761786358088</v>
       </c>
       <c r="H20">
-        <v>14.15879258006911</v>
+        <v>9.056494868429226</v>
       </c>
       <c r="I20">
-        <v>19.10116199392279</v>
+        <v>11.25449355636909</v>
       </c>
       <c r="J20">
-        <v>9.250854162345156</v>
+        <v>6.222511353539203</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.41058203946849</v>
+        <v>11.36289470006876</v>
       </c>
       <c r="O20">
-        <v>21.74362702643695</v>
+        <v>16.21410356977033</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.49481810235608</v>
+        <v>26.41714831579497</v>
       </c>
       <c r="C21">
-        <v>11.26783593751418</v>
+        <v>19.66202378028333</v>
       </c>
       <c r="D21">
-        <v>15.23099640261437</v>
+        <v>14.70974598809072</v>
       </c>
       <c r="E21">
-        <v>16.63967832926282</v>
+        <v>15.87862966885298</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.8358553452142</v>
+        <v>30.4577095024516</v>
       </c>
       <c r="H21">
-        <v>14.12709097046193</v>
+        <v>9.191832989749251</v>
       </c>
       <c r="I21">
-        <v>18.99838870669914</v>
+        <v>11.21002210665027</v>
       </c>
       <c r="J21">
-        <v>9.253241880865188</v>
+        <v>6.380482362655232</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.37493294193474</v>
+        <v>11.28424610315149</v>
       </c>
       <c r="O21">
-        <v>21.73754341592925</v>
+        <v>16.7322276587341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.92140157676057</v>
+        <v>27.36609791277286</v>
       </c>
       <c r="C22">
-        <v>11.62200187417934</v>
+        <v>20.36385574579699</v>
       </c>
       <c r="D22">
-        <v>15.3113736767607</v>
+        <v>15.15464578871619</v>
       </c>
       <c r="E22">
-        <v>16.72233633186319</v>
+        <v>16.35612869517457</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.96908666214194</v>
+        <v>31.43249883680841</v>
       </c>
       <c r="H22">
-        <v>14.10887484103133</v>
+        <v>9.288452498566011</v>
       </c>
       <c r="I22">
-        <v>18.93528352317043</v>
+        <v>11.19995461122166</v>
       </c>
       <c r="J22">
-        <v>9.256042181770891</v>
+        <v>6.485541912992004</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.35315435482872</v>
+        <v>11.23695745039137</v>
       </c>
       <c r="O22">
-        <v>21.73872610115401</v>
+        <v>17.0823213193458</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.69505072564395</v>
+        <v>26.86341258997597</v>
       </c>
       <c r="C23">
-        <v>11.43436981734828</v>
+        <v>19.99201904663012</v>
       </c>
       <c r="D23">
-        <v>15.26826235200912</v>
+        <v>14.9178893908985</v>
       </c>
       <c r="E23">
-        <v>16.67797882870822</v>
+        <v>16.10196300714317</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.89715746071904</v>
+        <v>30.91219314106392</v>
       </c>
       <c r="H23">
-        <v>14.11836781054782</v>
+        <v>9.236121760830134</v>
       </c>
       <c r="I23">
-        <v>18.96859114785191</v>
+        <v>11.20350498679357</v>
       </c>
       <c r="J23">
-        <v>9.254434432130868</v>
+        <v>6.429306213126641</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.36463907421587</v>
+        <v>11.26180866580909</v>
       </c>
       <c r="O23">
-        <v>21.73762258078747</v>
+        <v>16.89442506836757</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.80921487289701</v>
+        <v>24.87590970342053</v>
       </c>
       <c r="C24">
-        <v>10.69332317988087</v>
+        <v>18.52310314160085</v>
       </c>
       <c r="D24">
-        <v>15.10976186492669</v>
+        <v>14.00626324425166</v>
       </c>
       <c r="E24">
-        <v>16.51539353367433</v>
+        <v>15.12464984772291</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.64295639346352</v>
+        <v>28.94328976601396</v>
       </c>
       <c r="H24">
-        <v>14.15935290225129</v>
+        <v>9.054417174103193</v>
       </c>
       <c r="I24">
-        <v>19.10291013658157</v>
+        <v>11.2555223727374</v>
       </c>
       <c r="J24">
-        <v>9.250836122442161</v>
+        <v>6.219960738617941</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.41119040769747</v>
+        <v>11.36424715800417</v>
       </c>
       <c r="O24">
-        <v>21.74381346633101</v>
+        <v>16.20582990512194</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.79651672213136</v>
+        <v>22.55047199251861</v>
       </c>
       <c r="C25">
-        <v>9.830399924833976</v>
+        <v>16.80694888210643</v>
       </c>
       <c r="D25">
-        <v>14.94967163685733</v>
+        <v>12.99363236076525</v>
       </c>
       <c r="E25">
-        <v>16.35224931465799</v>
+        <v>14.04185982842511</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.40872486113652</v>
+        <v>26.82923519473828</v>
       </c>
       <c r="H25">
-        <v>14.21427162856225</v>
+        <v>8.891842355608222</v>
       </c>
       <c r="I25">
-        <v>19.26513783562923</v>
+        <v>11.38480256391545</v>
       </c>
       <c r="J25">
-        <v>9.252301160884292</v>
+        <v>6.002275816920475</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.46794793573109</v>
+        <v>11.49133578753471</v>
       </c>
       <c r="O25">
-        <v>21.77259110148477</v>
+        <v>15.51285682119818</v>
       </c>
     </row>
   </sheetData>
